--- a/Code/Results/Cases/Case_7_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_58/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.77988953138949</v>
+        <v>30.77988953138959</v>
       </c>
       <c r="C2">
-        <v>24.00571641003295</v>
+        <v>24.00571641003289</v>
       </c>
       <c r="D2">
-        <v>4.208375786759035</v>
+        <v>4.208375786758981</v>
       </c>
       <c r="E2">
-        <v>30.69496123494899</v>
+        <v>30.69496123494905</v>
       </c>
       <c r="F2">
-        <v>42.2610378129617</v>
+        <v>42.26103781296182</v>
       </c>
       <c r="G2">
-        <v>2.009285130901935</v>
+        <v>2.009285130902061</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.69904419260123</v>
+        <v>11.6990441926012</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.46799531256145</v>
+        <v>28.46799531256139</v>
       </c>
       <c r="C3">
-        <v>22.20128770422501</v>
+        <v>22.20128770422492</v>
       </c>
       <c r="D3">
-        <v>4.160390718355703</v>
+        <v>4.160390718355714</v>
       </c>
       <c r="E3">
-        <v>28.28239235834911</v>
+        <v>28.28239235834912</v>
       </c>
       <c r="F3">
-        <v>39.56150549226589</v>
+        <v>39.56150549226594</v>
       </c>
       <c r="G3">
-        <v>2.025719756243939</v>
+        <v>2.025719756243808</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.99050587723813</v>
+        <v>26.99050587723817</v>
       </c>
       <c r="C4">
-        <v>21.04924245431761</v>
+        <v>21.04924245431762</v>
       </c>
       <c r="D4">
-        <v>4.139834384031139</v>
+        <v>4.139834384031086</v>
       </c>
       <c r="E4">
-        <v>26.75519243024204</v>
+        <v>26.75519243024212</v>
       </c>
       <c r="F4">
-        <v>37.88942779962377</v>
+        <v>37.88942779962382</v>
       </c>
       <c r="G4">
-        <v>2.035875336940634</v>
+        <v>2.035875336940506</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.0899585966813</v>
+        <v>12.08995859668128</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.37320182007718</v>
+        <v>26.37320182007738</v>
       </c>
       <c r="C5">
-        <v>20.56812152208415</v>
+        <v>20.56812152208438</v>
       </c>
       <c r="D5">
-        <v>4.133453422778024</v>
+        <v>4.133453422777919</v>
       </c>
       <c r="E5">
-        <v>26.12023604874532</v>
+        <v>26.12023604874544</v>
       </c>
       <c r="F5">
-        <v>37.20421647636306</v>
+        <v>37.20421647636307</v>
       </c>
       <c r="G5">
-        <v>2.040039344785807</v>
+        <v>2.040039344785936</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.15310452408726</v>
+        <v>12.15310452408715</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.26976300824438</v>
+        <v>26.2697630082444</v>
       </c>
       <c r="C6">
         <v>20.48751290562267</v>
       </c>
       <c r="D6">
-        <v>4.132507702474646</v>
+        <v>4.132507702474592</v>
       </c>
       <c r="E6">
-        <v>26.01401183133923</v>
+        <v>26.0140118313393</v>
       </c>
       <c r="F6">
-        <v>37.09020691076078</v>
+        <v>37.09020691076076</v>
       </c>
       <c r="G6">
-        <v>2.040732564086217</v>
+        <v>2.040732564086218</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.16366254867844</v>
+        <v>12.16366254867841</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>26.98224308363403</v>
       </c>
       <c r="C7">
-        <v>21.04280176089728</v>
+        <v>21.04280176089735</v>
       </c>
       <c r="D7">
-        <v>4.13974055307834</v>
+        <v>4.139740553078346</v>
       </c>
       <c r="E7">
-        <v>26.74668155500922</v>
+        <v>26.74668155500906</v>
       </c>
       <c r="F7">
-        <v>37.88020231394892</v>
+        <v>37.88020231394903</v>
       </c>
       <c r="G7">
-        <v>2.035931379516775</v>
+        <v>2.035931379516911</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.09080529500004</v>
+        <v>12.09080529500017</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.99436971282725</v>
+        <v>29.99436971282731</v>
       </c>
       <c r="C8">
-        <v>23.39234591804584</v>
+        <v>23.39234591804592</v>
       </c>
       <c r="D8">
-        <v>4.189828131142229</v>
+        <v>4.189828131142128</v>
       </c>
       <c r="E8">
-        <v>29.87192980331035</v>
+        <v>29.8719298033104</v>
       </c>
       <c r="F8">
-        <v>41.33307155014064</v>
+        <v>41.33307155014072</v>
       </c>
       <c r="G8">
         <v>2.014944376674247</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.78031766410714</v>
+        <v>11.78031766410716</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.47545027554654</v>
+        <v>35.47545027554629</v>
       </c>
       <c r="C9">
-        <v>27.67965948835048</v>
+        <v>27.67965948835057</v>
       </c>
       <c r="D9">
-        <v>4.371031773086527</v>
+        <v>4.371031773086519</v>
       </c>
       <c r="E9">
-        <v>35.69538704377848</v>
+        <v>35.6953870437785</v>
       </c>
       <c r="F9">
-        <v>48.1890329872901</v>
+        <v>48.18903298728986</v>
       </c>
       <c r="G9">
-        <v>1.973799234012659</v>
+        <v>1.973799234012665</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.21724677014345</v>
+        <v>11.21724677014341</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.30241081389184</v>
+        <v>39.30241081389178</v>
       </c>
       <c r="C10">
-        <v>30.68613307720633</v>
+        <v>30.68613307720625</v>
       </c>
       <c r="D10">
-        <v>4.574558112405425</v>
+        <v>4.574558112405397</v>
       </c>
       <c r="E10">
-        <v>39.89249119389975</v>
+        <v>39.89249119389967</v>
       </c>
       <c r="F10">
-        <v>53.40612111257149</v>
+        <v>53.40612111257147</v>
       </c>
       <c r="G10">
-        <v>1.942696235091802</v>
+        <v>1.942696235091538</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.84074457897586</v>
+        <v>10.84074457897584</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41.0179783148167</v>
+        <v>41.01797831481667</v>
       </c>
       <c r="C11">
-        <v>32.03839586152048</v>
+        <v>32.03839586152038</v>
       </c>
       <c r="D11">
-        <v>4.687941319991214</v>
+        <v>4.687941319991223</v>
       </c>
       <c r="E11">
-        <v>41.81711508301742</v>
+        <v>41.81711508301741</v>
       </c>
       <c r="F11">
         <v>55.79077606193592</v>
       </c>
       <c r="G11">
-        <v>1.928087105919344</v>
+        <v>1.928087105919614</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.68082228305765</v>
+        <v>10.68082228305768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.66601254224831</v>
+        <v>41.66601254224817</v>
       </c>
       <c r="C12">
-        <v>32.55002933313204</v>
+        <v>32.55002933313189</v>
       </c>
       <c r="D12">
-        <v>4.780822860005569</v>
+        <v>4.780822860005568</v>
       </c>
       <c r="E12">
-        <v>42.55198799157959</v>
+        <v>42.55198799157954</v>
       </c>
       <c r="F12">
-        <v>56.69861440520724</v>
+        <v>56.69861440520702</v>
       </c>
       <c r="G12">
-        <v>1.922457970696066</v>
+        <v>1.922457970695931</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.6223056634602</v>
+        <v>10.6223056634603</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.52647975205775</v>
+        <v>41.52647975205762</v>
       </c>
       <c r="C13">
         <v>32.43982541099742</v>
@@ -947,13 +947,13 @@
         <v>4.7602340940105</v>
       </c>
       <c r="E13">
-        <v>42.39337531645077</v>
+        <v>42.39337531645074</v>
       </c>
       <c r="F13">
-        <v>56.50281846790589</v>
+        <v>56.50281846790568</v>
       </c>
       <c r="G13">
-        <v>1.923675210240496</v>
+        <v>1.923675210240503</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.63480930301751</v>
+        <v>10.63480930301754</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41.07131107314351</v>
+        <v>41.0713110731437</v>
       </c>
       <c r="C14">
-        <v>32.08048499743308</v>
+        <v>32.08048499743327</v>
       </c>
       <c r="D14">
-        <v>4.693437404482384</v>
+        <v>4.693437404482415</v>
       </c>
       <c r="E14">
-        <v>41.87742548709223</v>
+        <v>41.87742548709246</v>
       </c>
       <c r="F14">
-        <v>55.8653458015824</v>
+        <v>55.86534580158269</v>
       </c>
       <c r="G14">
-        <v>1.927626146694064</v>
+        <v>1.927626146693932</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.67596427934421</v>
+        <v>10.67596427934409</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.79236719507768</v>
+        <v>40.79236719507771</v>
       </c>
       <c r="C15">
-        <v>31.86038302342746</v>
+        <v>31.86038302342742</v>
       </c>
       <c r="D15">
-        <v>4.672224575325945</v>
+        <v>4.672224575325944</v>
       </c>
       <c r="E15">
-        <v>41.5623160831851</v>
+        <v>41.56231608318519</v>
       </c>
       <c r="F15">
-        <v>55.47561570845802</v>
+        <v>55.47561570845811</v>
       </c>
       <c r="G15">
-        <v>1.930032509926234</v>
+        <v>1.930032509926108</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.70145352040983</v>
+        <v>10.70145352040979</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.18994537542645</v>
+        <v>39.18994537542653</v>
       </c>
       <c r="C16">
-        <v>30.59759014662051</v>
+        <v>30.59759014662081</v>
       </c>
       <c r="D16">
-        <v>4.567614055939537</v>
+        <v>4.567614055939552</v>
       </c>
       <c r="E16">
-        <v>39.76732377911328</v>
+        <v>39.76732377911345</v>
       </c>
       <c r="F16">
-        <v>53.25075673711881</v>
+        <v>53.25075673711898</v>
       </c>
       <c r="G16">
-        <v>1.943639280833085</v>
+        <v>1.943639280833082</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.85145622461224</v>
+        <v>10.85145622461217</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.20169725543015</v>
+        <v>38.20169725543031</v>
       </c>
       <c r="C17">
-        <v>29.82007717719201</v>
+        <v>29.82007717719206</v>
       </c>
       <c r="D17">
-        <v>4.509143613770269</v>
+        <v>4.509143613770221</v>
       </c>
       <c r="E17">
-        <v>38.67246963559717</v>
+        <v>38.67246963559732</v>
       </c>
       <c r="F17">
-        <v>51.89075420541555</v>
+        <v>51.89075420541577</v>
       </c>
       <c r="G17">
-        <v>1.95184944118983</v>
+        <v>1.951849441189698</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.94663545181734</v>
+        <v>10.94663545181726</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>37.63074961004661</v>
+        <v>37.63074961004674</v>
       </c>
       <c r="C18">
-        <v>29.37129270217483</v>
+        <v>29.37129270217499</v>
       </c>
       <c r="D18">
-        <v>4.477428480243581</v>
+        <v>4.47742848024358</v>
       </c>
       <c r="E18">
         <v>38.04389521525668</v>
       </c>
       <c r="F18">
-        <v>51.10934685163415</v>
+        <v>51.10934685163431</v>
       </c>
       <c r="G18">
-        <v>1.95653065760082</v>
+        <v>1.956530657600825</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.00241704196986</v>
+        <v>11.00241704196985</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.4369484041511</v>
+        <v>37.43694840415099</v>
       </c>
       <c r="C19">
-        <v>29.21902442800168</v>
+        <v>29.21902442800161</v>
       </c>
       <c r="D19">
-        <v>4.467003490494712</v>
+        <v>4.467003490494714</v>
       </c>
       <c r="E19">
-        <v>37.83117051402612</v>
+        <v>37.83117051402608</v>
       </c>
       <c r="F19">
-        <v>50.84483708612415</v>
+        <v>50.84483708612397</v>
       </c>
       <c r="G19">
-        <v>1.958109387582294</v>
+        <v>1.958109387582302</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.02147150880044</v>
+        <v>11.02147150880053</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.30714723703551</v>
+        <v>38.30714723703572</v>
       </c>
       <c r="C20">
-        <v>29.90299696036284</v>
+        <v>29.90299696036298</v>
       </c>
       <c r="D20">
-        <v>4.515165812648828</v>
+        <v>4.515165812648877</v>
       </c>
       <c r="E20">
-        <v>38.78887484719753</v>
+        <v>38.78887484719766</v>
       </c>
       <c r="F20">
-        <v>52.03542298882682</v>
+        <v>52.03542298882715</v>
       </c>
       <c r="G20">
-        <v>1.950979899564403</v>
+        <v>1.950979899564405</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.93639359884308</v>
+        <v>10.93639359884294</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.2050298071465</v>
+        <v>41.20502980714657</v>
       </c>
       <c r="C21">
-        <v>32.18602712183528</v>
+        <v>32.18602712183531</v>
       </c>
       <c r="D21">
-        <v>4.713002949150542</v>
+        <v>4.713002949150574</v>
       </c>
       <c r="E21">
-        <v>42.02877099463385</v>
+        <v>42.02877099463397</v>
       </c>
       <c r="F21">
-        <v>56.0524254488079</v>
+        <v>56.05242544880802</v>
       </c>
       <c r="G21">
-        <v>1.926468584479149</v>
+        <v>1.926468584479017</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.66381663550853</v>
+        <v>10.66381663550852</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.09097973815327</v>
+        <v>43.09097973815322</v>
       </c>
       <c r="C22">
-        <v>33.67681202045358</v>
+        <v>33.67681202045362</v>
       </c>
       <c r="D22">
-        <v>4.994143528421207</v>
+        <v>4.994143528421268</v>
       </c>
       <c r="E22">
-        <v>44.18436886499927</v>
+        <v>44.18436886499929</v>
       </c>
       <c r="F22">
-        <v>58.70820106123702</v>
+        <v>58.70820106123701</v>
       </c>
       <c r="G22">
-        <v>1.909861973541531</v>
+        <v>1.909861973541402</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42.08430405701105</v>
+        <v>42.08430405701095</v>
       </c>
       <c r="C23">
-        <v>32.88053524773039</v>
+        <v>32.88053524773043</v>
       </c>
       <c r="D23">
-        <v>4.842861557988143</v>
+        <v>4.842861557988106</v>
       </c>
       <c r="E23">
-        <v>43.02876290011907</v>
+        <v>43.02876290011897</v>
       </c>
       <c r="F23">
-        <v>57.28662739625553</v>
+        <v>57.28662739625542</v>
       </c>
       <c r="G23">
-        <v>1.918791755547633</v>
+        <v>1.918791755547504</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.58515148092234</v>
+        <v>10.58515148092236</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.25948213722169</v>
+        <v>38.25948213722183</v>
       </c>
       <c r="C24">
-        <v>29.86551460304182</v>
+        <v>29.86551460304192</v>
       </c>
       <c r="D24">
-        <v>4.512437299942304</v>
+        <v>4.512437299942303</v>
       </c>
       <c r="E24">
-        <v>38.73624560807286</v>
+        <v>38.73624560807296</v>
       </c>
       <c r="F24">
-        <v>51.97001697390191</v>
+        <v>51.9700169739021</v>
       </c>
       <c r="G24">
         <v>1.951373138350611</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.94102066222434</v>
+        <v>10.94102066222437</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.03284491329738</v>
+        <v>34.03284491329744</v>
       </c>
       <c r="C25">
-        <v>26.54940354204605</v>
+        <v>26.5494035420462</v>
       </c>
       <c r="D25">
-        <v>4.311260061750078</v>
+        <v>4.311260061750093</v>
       </c>
       <c r="E25">
-        <v>34.14330953057475</v>
+        <v>34.14330953057478</v>
       </c>
       <c r="F25">
-        <v>46.26154687738841</v>
+        <v>46.26154687738854</v>
       </c>
       <c r="G25">
-        <v>1.985008363684556</v>
+        <v>1.985008363684424</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.36389550631609</v>
+        <v>11.36389550631607</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,43 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.77988953138959</v>
+        <v>23.1744576814816</v>
       </c>
       <c r="C2">
-        <v>24.00571641003289</v>
+        <v>18.94977595068177</v>
       </c>
       <c r="D2">
-        <v>4.208375786758981</v>
+        <v>3.025290289874712</v>
       </c>
       <c r="E2">
-        <v>30.69496123494905</v>
+        <v>30.08457070710008</v>
       </c>
       <c r="F2">
-        <v>42.26103781296182</v>
+        <v>24.89463460464696</v>
       </c>
       <c r="G2">
-        <v>2.009285130902061</v>
+        <v>35.63374393514407</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3.674625027348694</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.5426764364732</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.91379486918274</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +460,48 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.6990441926012</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>10.86648340425464</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.46799531256139</v>
+        <v>21.62601579041225</v>
       </c>
       <c r="C3">
-        <v>22.20128770422492</v>
+        <v>17.69302248230213</v>
       </c>
       <c r="D3">
-        <v>4.160390718355714</v>
+        <v>3.014159024647602</v>
       </c>
       <c r="E3">
-        <v>28.28239235834912</v>
+        <v>28.12822883161511</v>
       </c>
       <c r="F3">
-        <v>39.56150549226594</v>
+        <v>23.62885057569136</v>
       </c>
       <c r="G3">
-        <v>2.025719756243808</v>
+        <v>33.57954144906122</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.37431433499266</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.2494263286999</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.67761343691689</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +510,48 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.9380280845968</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>11.04278940976912</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.99050587723817</v>
+        <v>20.62048109684941</v>
       </c>
       <c r="C4">
-        <v>21.04924245431762</v>
+        <v>16.87803409596609</v>
       </c>
       <c r="D4">
-        <v>4.139834384031086</v>
+        <v>3.006341574845417</v>
       </c>
       <c r="E4">
-        <v>26.75519243024212</v>
+        <v>26.8630039972205</v>
       </c>
       <c r="F4">
-        <v>37.88942779962382</v>
+        <v>22.83792850675922</v>
       </c>
       <c r="G4">
-        <v>2.035875336940506</v>
+        <v>32.28576026147289</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.184317975129928</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.07295948563379</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.54450135943463</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +560,48 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.08995859668128</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>11.15315413270825</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.37320182007738</v>
+        <v>20.1968601171304</v>
       </c>
       <c r="C5">
-        <v>20.56812152208438</v>
+        <v>16.53496811698605</v>
       </c>
       <c r="D5">
-        <v>4.133453422777919</v>
+        <v>3.002915416269465</v>
       </c>
       <c r="E5">
-        <v>26.12023604874544</v>
+        <v>26.33124920973913</v>
       </c>
       <c r="F5">
-        <v>37.20421647636307</v>
+        <v>22.51252082722947</v>
       </c>
       <c r="G5">
-        <v>2.040039344785936</v>
+        <v>31.75081568570507</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.105442499277395</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.00198973819272</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.49315944825024</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +610,48 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.15310452408715</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>11.19867554466773</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.2697630082444</v>
+        <v>20.12567898016105</v>
       </c>
       <c r="C6">
-        <v>20.48751290562267</v>
+        <v>16.47733943558405</v>
       </c>
       <c r="D6">
-        <v>4.132507702474592</v>
+        <v>3.002332172747288</v>
       </c>
       <c r="E6">
-        <v>26.0140118313393</v>
+        <v>26.24197387372031</v>
       </c>
       <c r="F6">
-        <v>37.09020691076076</v>
+        <v>22.45831140149935</v>
       </c>
       <c r="G6">
-        <v>2.040732564086218</v>
+        <v>31.6615378629197</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.092256520529022</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.990263310471191</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.48480662648749</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +660,48 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.16366254867841</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>11.20626782902199</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.98224308363403</v>
+        <v>20.61482420725561</v>
       </c>
       <c r="C7">
-        <v>21.04280176089735</v>
+        <v>16.8734517954841</v>
       </c>
       <c r="D7">
-        <v>4.139740553078346</v>
+        <v>3.006296333491598</v>
       </c>
       <c r="E7">
-        <v>26.74668155500906</v>
+        <v>26.85589809146403</v>
       </c>
       <c r="F7">
-        <v>37.88020231394903</v>
+        <v>22.83355198712051</v>
       </c>
       <c r="G7">
-        <v>2.035931379516911</v>
+        <v>32.27857638062422</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.183260158532871</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.07199849673322</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.5437973196323</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +710,48 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.09080529500017</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>11.15376581530163</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.99436971282731</v>
+        <v>22.65187444499411</v>
       </c>
       <c r="C8">
-        <v>23.39234591804592</v>
+        <v>18.52540610030591</v>
       </c>
       <c r="D8">
-        <v>4.189828131142128</v>
+        <v>3.021660253586529</v>
       </c>
       <c r="E8">
-        <v>29.8719298033104</v>
+        <v>29.42326537303828</v>
       </c>
       <c r="F8">
-        <v>41.33307155014072</v>
+        <v>24.46123121413645</v>
       </c>
       <c r="G8">
-        <v>2.014944376674247</v>
+        <v>34.93243498948296</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.572215631473243</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.44084183295613</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.82983656672449</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +760,48 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.78031766410716</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>10.92684492776835</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.47545027554629</v>
+        <v>26.21585191367539</v>
       </c>
       <c r="C9">
-        <v>27.67965948835057</v>
+        <v>21.42398330718797</v>
       </c>
       <c r="D9">
-        <v>4.371031773086519</v>
+        <v>3.043684886607328</v>
       </c>
       <c r="E9">
-        <v>35.6953870437785</v>
+        <v>33.95396199128828</v>
       </c>
       <c r="F9">
-        <v>48.18903298728986</v>
+        <v>27.53216543402098</v>
       </c>
       <c r="G9">
-        <v>1.973799234012665</v>
+        <v>39.86467085281713</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>4.292467119416767</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.19103723527938</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.48888613208845</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +810,48 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.21724677014341</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>10.49788456142335</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.30241081389178</v>
+        <v>28.50562849492835</v>
       </c>
       <c r="C10">
-        <v>30.68613307720625</v>
+        <v>23.24871614528158</v>
       </c>
       <c r="D10">
-        <v>4.574558112405397</v>
+        <v>3.076717642859621</v>
       </c>
       <c r="E10">
-        <v>39.89249119389967</v>
+        <v>36.10263482219044</v>
       </c>
       <c r="F10">
-        <v>53.40612111257147</v>
+        <v>29.51294773813639</v>
       </c>
       <c r="G10">
-        <v>1.942696235091538</v>
+        <v>42.97274662740889</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>4.756613365242169</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.68394996039988</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.92930791461112</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +860,48 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.84074457897584</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>10.20803838865239</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41.01797831481667</v>
+        <v>28.88121694396243</v>
       </c>
       <c r="C11">
-        <v>32.03839586152038</v>
+        <v>23.17339709680591</v>
       </c>
       <c r="D11">
-        <v>4.687941319991223</v>
+        <v>3.305422964163979</v>
       </c>
       <c r="E11">
-        <v>41.81711508301741</v>
+        <v>29.5757180877046</v>
       </c>
       <c r="F11">
-        <v>55.79077606193592</v>
+        <v>28.7623948310275</v>
       </c>
       <c r="G11">
-        <v>1.928087105919614</v>
+        <v>41.45544719451203</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>5.057283886132849</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.27957330784546</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.20546169900812</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +910,48 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.68082228305768</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>10.24085327515414</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.66601254224817</v>
+        <v>28.73523596981026</v>
       </c>
       <c r="C12">
-        <v>32.55002933313189</v>
+        <v>22.74250012682366</v>
       </c>
       <c r="D12">
-        <v>4.780822860005568</v>
+        <v>3.516815188991535</v>
       </c>
       <c r="E12">
-        <v>42.55198799157954</v>
+        <v>23.71296162864006</v>
       </c>
       <c r="F12">
-        <v>56.69861440520702</v>
+        <v>27.69991159048644</v>
       </c>
       <c r="G12">
-        <v>1.922457970695931</v>
+        <v>39.50868832895664</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>5.76204504243297</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.82332627569033</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.48387002227528</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +960,48 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.6223056634603</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>10.35018650622493</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.52647975205762</v>
+        <v>28.17677895799798</v>
       </c>
       <c r="C13">
-        <v>32.43982541099742</v>
+        <v>22.00082453428506</v>
       </c>
       <c r="D13">
-        <v>4.7602340940105</v>
+        <v>3.721424016649885</v>
       </c>
       <c r="E13">
-        <v>42.39337531645074</v>
+        <v>17.93861870155605</v>
       </c>
       <c r="F13">
-        <v>56.50281846790568</v>
+        <v>26.29893249633957</v>
       </c>
       <c r="G13">
-        <v>1.923675210240503</v>
+        <v>37.04730008202181</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.684357569418078</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.29053723020009</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.7098644303794</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1010,48 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.63480930301754</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>10.51601128397585</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41.0713110731437</v>
+        <v>27.59332460574153</v>
       </c>
       <c r="C14">
-        <v>32.08048499743327</v>
+        <v>21.33323476430988</v>
       </c>
       <c r="D14">
-        <v>4.693437404482415</v>
+        <v>3.861985663050593</v>
       </c>
       <c r="E14">
-        <v>41.87742548709246</v>
+        <v>14.05261373100778</v>
       </c>
       <c r="F14">
-        <v>55.86534580158269</v>
+        <v>25.14791980317846</v>
       </c>
       <c r="G14">
-        <v>1.927626146693932</v>
+        <v>35.05832139570991</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>7.424912791689714</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.879735124603506</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.14342517060161</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1060,48 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.67596427934409</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>10.65595581779442</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.79236719507771</v>
+        <v>27.35999293870695</v>
       </c>
       <c r="C15">
-        <v>31.86038302342742</v>
+        <v>21.10049771239566</v>
       </c>
       <c r="D15">
-        <v>4.672224575325944</v>
+        <v>3.891577930130521</v>
       </c>
       <c r="E15">
-        <v>41.56231608318519</v>
+        <v>13.1301867405799</v>
       </c>
       <c r="F15">
-        <v>55.47561570845811</v>
+        <v>24.79291662860052</v>
       </c>
       <c r="G15">
-        <v>1.930032509926108</v>
+        <v>34.45728614661772</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.594600984174854</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.764350067629444</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.99686339937251</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1110,48 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.70145352040979</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>10.69831711788468</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.18994537542653</v>
+        <v>26.49724785364696</v>
       </c>
       <c r="C16">
-        <v>30.59759014662081</v>
+        <v>20.44822233160612</v>
       </c>
       <c r="D16">
-        <v>4.567614055939552</v>
+        <v>3.831233677527988</v>
       </c>
       <c r="E16">
-        <v>39.76732377911345</v>
+        <v>12.92582493021501</v>
       </c>
       <c r="F16">
-        <v>53.25075673711898</v>
+        <v>24.14654685281124</v>
       </c>
       <c r="G16">
-        <v>1.943639280833082</v>
+        <v>33.46053837302614</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>7.300310454835324</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.641821716751524</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.94410924620023</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1160,48 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.85145622461217</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>10.76753217415954</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.20169725543031</v>
+        <v>26.14629257478875</v>
       </c>
       <c r="C17">
-        <v>29.82007717719206</v>
+        <v>20.3095665952653</v>
       </c>
       <c r="D17">
-        <v>4.509143613770221</v>
+        <v>3.708287750233837</v>
       </c>
       <c r="E17">
-        <v>38.67246963559732</v>
+        <v>14.84660725125472</v>
       </c>
       <c r="F17">
-        <v>51.89075420541577</v>
+        <v>24.28897153013333</v>
       </c>
       <c r="G17">
-        <v>1.951849441189698</v>
+        <v>33.80424596426435</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.62787754699245</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.772820905479506</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.21117364838813</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1210,48 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.94663545181726</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>10.74971223125769</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>37.63074961004674</v>
+        <v>26.21240651705388</v>
       </c>
       <c r="C18">
-        <v>29.37129270217499</v>
+        <v>20.6129386535807</v>
       </c>
       <c r="D18">
-        <v>4.47742848024358</v>
+        <v>3.525865267528522</v>
       </c>
       <c r="E18">
-        <v>38.04389521525668</v>
+        <v>19.20927487017306</v>
       </c>
       <c r="F18">
-        <v>51.10934685163431</v>
+        <v>25.12533901168583</v>
       </c>
       <c r="G18">
-        <v>1.956530657600825</v>
+        <v>35.34494317264404</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.653732301263858</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.13215354191719</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.77593554594695</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1260,48 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.00241704196985</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>10.66239833992579</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.43694840415099</v>
+        <v>26.61402902589461</v>
       </c>
       <c r="C19">
-        <v>29.21902442800161</v>
+        <v>21.25343532009359</v>
       </c>
       <c r="D19">
-        <v>4.467003490494714</v>
+        <v>3.322574442832734</v>
       </c>
       <c r="E19">
-        <v>37.83117051402608</v>
+        <v>25.36994724294284</v>
       </c>
       <c r="F19">
-        <v>50.84483708612397</v>
+        <v>26.44039080495977</v>
       </c>
       <c r="G19">
-        <v>1.958109387582302</v>
+        <v>37.70509790043952</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>4.782943840303902</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.64294229630422</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.53485148225877</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1310,48 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.02147150880053</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>10.53451577282835</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.30714723703572</v>
+        <v>27.91759700049044</v>
       </c>
       <c r="C20">
-        <v>29.90299696036298</v>
+        <v>22.77763899311915</v>
       </c>
       <c r="D20">
-        <v>4.515165812648877</v>
+        <v>3.069200529246165</v>
       </c>
       <c r="E20">
-        <v>38.78887484719766</v>
+        <v>35.51032887701932</v>
       </c>
       <c r="F20">
-        <v>52.03542298882715</v>
+        <v>28.98913906208719</v>
       </c>
       <c r="G20">
-        <v>1.950979899564405</v>
+        <v>42.15099156732421</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>4.633493981210878</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.55015946353289</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.80421874585333</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1360,48 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.93639359884294</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>10.2839615012026</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.20502980714657</v>
+        <v>29.70775744274107</v>
       </c>
       <c r="C21">
-        <v>32.18602712183531</v>
+        <v>24.2736653563486</v>
       </c>
       <c r="D21">
-        <v>4.713002949150574</v>
+        <v>3.058489941105022</v>
       </c>
       <c r="E21">
-        <v>42.02877099463397</v>
+        <v>38.43848839808193</v>
       </c>
       <c r="F21">
-        <v>56.05242544880802</v>
+        <v>30.77606410839927</v>
       </c>
       <c r="G21">
-        <v>1.926468584479017</v>
+        <v>45.00528505578487</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>5.049266672035887</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.04568879003933</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.33132709091041</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1410,48 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.66381663550852</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>10.03876132813012</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.09097973815322</v>
+        <v>30.79581866569169</v>
       </c>
       <c r="C22">
-        <v>33.67681202045362</v>
+        <v>25.16357590819625</v>
       </c>
       <c r="D22">
-        <v>4.994143528421268</v>
+        <v>3.061587709957523</v>
       </c>
       <c r="E22">
-        <v>44.18436886499929</v>
+        <v>39.84485425824381</v>
       </c>
       <c r="F22">
-        <v>58.70820106123701</v>
+        <v>31.82911911967934</v>
       </c>
       <c r="G22">
-        <v>1.909861973541402</v>
+        <v>46.66359166615142</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>5.295818374950511</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.33455849233258</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.63336096342217</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1460,48 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.49788447360396</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>9.888022195298547</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42.08430405701095</v>
+        <v>30.21914450647685</v>
       </c>
       <c r="C23">
-        <v>32.88053524773043</v>
+        <v>24.6918040483575</v>
       </c>
       <c r="D23">
-        <v>4.842861557988106</v>
+        <v>3.060039892927882</v>
       </c>
       <c r="E23">
-        <v>43.02876290011897</v>
+        <v>39.0989460312165</v>
       </c>
       <c r="F23">
-        <v>57.28662739625542</v>
+        <v>31.26861339722805</v>
       </c>
       <c r="G23">
-        <v>1.918791755547504</v>
+        <v>45.78145957279914</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>5.164497923279623</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.18016482689029</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.47095750286694</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1510,48 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.58515148092236</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>9.968361626244745</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.25948213722183</v>
+        <v>27.94549765088646</v>
       </c>
       <c r="C24">
-        <v>29.86551460304192</v>
+        <v>22.83432460567393</v>
       </c>
       <c r="D24">
-        <v>4.512437299942303</v>
+        <v>3.051913606729116</v>
       </c>
       <c r="E24">
-        <v>38.73624560807296</v>
+        <v>36.16975688221975</v>
       </c>
       <c r="F24">
-        <v>51.9700169739021</v>
+        <v>29.1121786876036</v>
       </c>
       <c r="G24">
-        <v>1.951373138350611</v>
+        <v>42.37543901497568</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>4.660854285328946</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.60024241990554</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.88189766696764</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1560,48 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.94102066222437</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>10.27521036412123</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.03284491329744</v>
+        <v>25.29720802690661</v>
       </c>
       <c r="C25">
-        <v>26.5494035420462</v>
+        <v>20.67587915088652</v>
       </c>
       <c r="D25">
-        <v>4.311260061750093</v>
+        <v>3.038638226675774</v>
       </c>
       <c r="E25">
-        <v>34.14330953057478</v>
+        <v>32.78157368790649</v>
       </c>
       <c r="F25">
-        <v>46.26154687738854</v>
+        <v>26.7157641090849</v>
       </c>
       <c r="G25">
-        <v>1.985008363684424</v>
+        <v>38.5610439249505</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>4.101876272447964</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.98541314587466</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.29959556237547</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1610,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.36389550631607</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>10.61231898687816</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,43 +421,49 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.1744576814816</v>
+        <v>22.48736821869695</v>
       </c>
       <c r="C2">
-        <v>18.94977595068177</v>
+        <v>19.59421313454493</v>
       </c>
       <c r="D2">
-        <v>3.025290289874712</v>
+        <v>3.209300374951778</v>
       </c>
       <c r="E2">
-        <v>30.08457070710008</v>
+        <v>29.90870958680491</v>
       </c>
       <c r="F2">
-        <v>24.89463460464696</v>
+        <v>23.92643113537662</v>
       </c>
       <c r="G2">
-        <v>35.63374393514407</v>
+        <v>33.43288814094308</v>
       </c>
       <c r="H2">
-        <v>3.674625027348694</v>
+        <v>3.575483119988061</v>
       </c>
       <c r="J2">
-        <v>10.5426764364732</v>
+        <v>10.86757357474851</v>
       </c>
       <c r="K2">
-        <v>13.91379486918274</v>
+        <v>13.22427188349994</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.45149922795409</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.596837661283927</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -466,48 +472,54 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>10.86648340425464</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.04369102542564</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.62601579041225</v>
+        <v>21.03556137493214</v>
       </c>
       <c r="C3">
-        <v>17.69302248230213</v>
+        <v>18.25015504501999</v>
       </c>
       <c r="D3">
-        <v>3.014159024647602</v>
+        <v>3.164214708088091</v>
       </c>
       <c r="E3">
-        <v>28.12822883161511</v>
+        <v>27.98327201959006</v>
       </c>
       <c r="F3">
-        <v>23.62885057569136</v>
+        <v>22.80613256479107</v>
       </c>
       <c r="G3">
-        <v>33.57954144906122</v>
+        <v>31.58605238116244</v>
       </c>
       <c r="H3">
-        <v>3.37431433499266</v>
+        <v>3.293242049391568</v>
       </c>
       <c r="J3">
-        <v>10.2494263286999</v>
+        <v>10.61162029170448</v>
       </c>
       <c r="K3">
-        <v>13.67761343691689</v>
+        <v>13.09572216492336</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.53239391057014</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.191965826390315</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -516,48 +528,54 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.04278940976912</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>11.17649330492965</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.62048109684941</v>
+        <v>20.09185926747345</v>
       </c>
       <c r="C4">
-        <v>16.87803409596609</v>
+        <v>17.37761160655949</v>
       </c>
       <c r="D4">
-        <v>3.006341574845417</v>
+        <v>3.135339799338833</v>
       </c>
       <c r="E4">
-        <v>26.8630039972205</v>
+        <v>26.73719829577434</v>
       </c>
       <c r="F4">
-        <v>22.83792850675922</v>
+        <v>22.10548203592463</v>
       </c>
       <c r="G4">
-        <v>32.28576026147289</v>
+        <v>30.42469208208291</v>
       </c>
       <c r="H4">
-        <v>3.184317975129928</v>
+        <v>3.11445226325929</v>
       </c>
       <c r="J4">
-        <v>10.07295948563379</v>
+        <v>10.45438745450919</v>
       </c>
       <c r="K4">
-        <v>13.54450135943463</v>
+        <v>13.02578549074241</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.58323368024495</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.971713976840944</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -566,48 +584,54 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.15315413270825</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>11.26075051820127</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.1968601171304</v>
+        <v>19.69409045154496</v>
       </c>
       <c r="C5">
-        <v>16.53496811698605</v>
+        <v>17.01009505449959</v>
       </c>
       <c r="D5">
-        <v>3.002915416269465</v>
+        <v>3.123283174225253</v>
       </c>
       <c r="E5">
-        <v>26.33124920973913</v>
+        <v>26.21332018045913</v>
       </c>
       <c r="F5">
-        <v>22.51252082722947</v>
+        <v>21.8170347730915</v>
       </c>
       <c r="G5">
-        <v>31.75081568570507</v>
+        <v>29.94491895368141</v>
       </c>
       <c r="H5">
-        <v>3.105442499277395</v>
+        <v>3.040178464384278</v>
       </c>
       <c r="J5">
-        <v>10.00198973819272</v>
+        <v>10.39033072799791</v>
       </c>
       <c r="K5">
-        <v>13.49315944825024</v>
+        <v>12.99943642074099</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.60423300496612</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.889747126307228</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -616,48 +640,54 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.19867554466773</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>11.29576828963842</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.12567898016105</v>
+        <v>19.62724238875636</v>
       </c>
       <c r="C6">
-        <v>16.47733943558405</v>
+        <v>16.94834606429953</v>
       </c>
       <c r="D6">
-        <v>3.002332172747288</v>
+        <v>3.121263970475881</v>
       </c>
       <c r="E6">
-        <v>26.24197387372031</v>
+        <v>26.1253579794733</v>
       </c>
       <c r="F6">
-        <v>22.45831140149935</v>
+        <v>21.76897091605784</v>
       </c>
       <c r="G6">
-        <v>31.6615378629197</v>
+        <v>29.86487270331796</v>
       </c>
       <c r="H6">
-        <v>3.092256520529022</v>
+        <v>3.027758888108477</v>
       </c>
       <c r="J6">
-        <v>9.990263310471191</v>
+        <v>10.37969627390852</v>
       </c>
       <c r="K6">
-        <v>13.48480662648749</v>
+        <v>12.99518778303487</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.60773659623639</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.876625082324981</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -666,48 +696,54 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.20626782902199</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>11.30162416880205</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.61482420725561</v>
+        <v>20.07734606967575</v>
       </c>
       <c r="C7">
-        <v>16.8734517954841</v>
+        <v>17.35632112816194</v>
       </c>
       <c r="D7">
-        <v>3.006296333491598</v>
+        <v>3.137303308220037</v>
       </c>
       <c r="E7">
-        <v>26.85589809146403</v>
+        <v>26.72916522004828</v>
       </c>
       <c r="F7">
-        <v>22.83355198712051</v>
+        <v>22.07575839326998</v>
       </c>
       <c r="G7">
-        <v>32.27857638062422</v>
+        <v>30.5106893221868</v>
       </c>
       <c r="H7">
-        <v>3.183260158532871</v>
+        <v>3.112877677249139</v>
       </c>
       <c r="J7">
-        <v>10.07199849673322</v>
+        <v>10.39059959593074</v>
       </c>
       <c r="K7">
-        <v>13.5437973196323</v>
+        <v>13.01324255985791</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.57421182110699</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.960804746718771</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -716,48 +752,54 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.15376581530163</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>11.26237549861015</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.65187444499411</v>
+        <v>21.96936764893555</v>
       </c>
       <c r="C8">
-        <v>18.52540610030591</v>
+        <v>19.09035568733019</v>
       </c>
       <c r="D8">
-        <v>3.021660253586529</v>
+        <v>3.201279035481505</v>
       </c>
       <c r="E8">
-        <v>29.42326537303828</v>
+        <v>29.25486549784601</v>
       </c>
       <c r="F8">
-        <v>24.46123121413645</v>
+        <v>23.46196400732107</v>
       </c>
       <c r="G8">
-        <v>34.93243498948296</v>
+        <v>33.08849731364506</v>
       </c>
       <c r="H8">
-        <v>3.572215631473243</v>
+        <v>3.477480054002936</v>
       </c>
       <c r="J8">
-        <v>10.44084183295613</v>
+        <v>10.57664972974922</v>
       </c>
       <c r="K8">
-        <v>13.82983656672449</v>
+        <v>13.13827074247368</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.45034022980437</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.418269728712892</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -766,48 +808,54 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>10.92684492776835</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.09332268957353</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.21585191367539</v>
+        <v>25.30127375557354</v>
       </c>
       <c r="C9">
-        <v>21.42398330718797</v>
+        <v>22.17863698369431</v>
       </c>
       <c r="D9">
-        <v>3.043684886607328</v>
+        <v>3.309008445623935</v>
       </c>
       <c r="E9">
-        <v>33.95396199128828</v>
+        <v>33.70769706776824</v>
       </c>
       <c r="F9">
-        <v>27.53216543402098</v>
+        <v>26.16444399102021</v>
       </c>
       <c r="G9">
-        <v>39.86467085281713</v>
+        <v>37.57174561472837</v>
       </c>
       <c r="H9">
-        <v>4.292467119416767</v>
+        <v>4.152614001088232</v>
       </c>
       <c r="J9">
-        <v>11.19103723527938</v>
+        <v>11.1702749606932</v>
       </c>
       <c r="K9">
-        <v>14.48888613208845</v>
+        <v>13.50443072384608</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.25127905104556</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.548334960412712</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -816,48 +864,54 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>10.49788456142335</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>10.77935224689047</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.50562849492835</v>
+        <v>27.39856720784903</v>
       </c>
       <c r="C10">
-        <v>23.24871614528158</v>
+        <v>24.04267961176593</v>
       </c>
       <c r="D10">
-        <v>3.076717642859621</v>
+        <v>3.418910463988989</v>
       </c>
       <c r="E10">
-        <v>36.10263482219044</v>
+        <v>35.79351100942226</v>
       </c>
       <c r="F10">
-        <v>29.51294773813639</v>
+        <v>27.77779748597979</v>
       </c>
       <c r="G10">
-        <v>42.97274662740889</v>
+        <v>40.81779389442382</v>
       </c>
       <c r="H10">
-        <v>4.756613365242169</v>
+        <v>4.582201549068751</v>
       </c>
       <c r="J10">
-        <v>11.68394996039988</v>
+        <v>11.21663415917546</v>
       </c>
       <c r="K10">
-        <v>14.92930791461112</v>
+        <v>13.67070692955544</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.00977914633055</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.347996346984754</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -866,48 +920,54 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>10.20803838865239</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>10.59098286054255</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.88121694396243</v>
+        <v>27.69789570535888</v>
       </c>
       <c r="C11">
-        <v>23.17339709680591</v>
+        <v>23.78698602297428</v>
       </c>
       <c r="D11">
-        <v>3.305422964163979</v>
+        <v>3.719628122987343</v>
       </c>
       <c r="E11">
-        <v>29.5757180877046</v>
+        <v>29.22831899946832</v>
       </c>
       <c r="F11">
-        <v>28.7623948310275</v>
+        <v>26.79969461380853</v>
       </c>
       <c r="G11">
-        <v>41.45544719451203</v>
+        <v>40.29443939971632</v>
       </c>
       <c r="H11">
-        <v>5.057283886132849</v>
+        <v>4.890587565652408</v>
       </c>
       <c r="J11">
-        <v>11.27957330784546</v>
+        <v>10.16151870318514</v>
       </c>
       <c r="K11">
-        <v>14.20546169900812</v>
+        <v>12.86871718245263</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.33390844468028</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.051400601304703</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -916,48 +976,54 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>10.24085327515414</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>10.70883326456968</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.73523596981026</v>
+        <v>27.55100951562525</v>
       </c>
       <c r="C12">
-        <v>22.74250012682366</v>
+        <v>23.23968846215595</v>
       </c>
       <c r="D12">
-        <v>3.516815188991535</v>
+        <v>3.962764195828646</v>
       </c>
       <c r="E12">
-        <v>23.71296162864006</v>
+        <v>23.33233630150316</v>
       </c>
       <c r="F12">
-        <v>27.69991159048644</v>
+        <v>25.69464768244249</v>
       </c>
       <c r="G12">
-        <v>39.50868832895664</v>
+        <v>38.91090688969928</v>
       </c>
       <c r="H12">
-        <v>5.76204504243297</v>
+        <v>5.621690837878727</v>
       </c>
       <c r="J12">
-        <v>10.82332627569033</v>
+        <v>9.466568451793426</v>
       </c>
       <c r="K12">
-        <v>13.48387002227528</v>
+        <v>12.18568871825948</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.85012625957082</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.595754584286034</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -966,48 +1032,54 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>10.35018650622493</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>10.85993310478378</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.17677895799798</v>
+        <v>27.06687408385379</v>
       </c>
       <c r="C13">
-        <v>22.00082453428506</v>
+        <v>22.4506543273307</v>
       </c>
       <c r="D13">
-        <v>3.721424016649885</v>
+        <v>4.159093790340353</v>
       </c>
       <c r="E13">
-        <v>17.93861870155605</v>
+        <v>17.51809363379073</v>
       </c>
       <c r="F13">
-        <v>26.29893249633957</v>
+        <v>24.44377648619412</v>
       </c>
       <c r="G13">
-        <v>37.04730008202181</v>
+        <v>36.54788746503034</v>
       </c>
       <c r="H13">
-        <v>6.684357569418078</v>
+        <v>6.573927451736575</v>
       </c>
       <c r="J13">
-        <v>10.29053723020009</v>
+        <v>9.113577175580703</v>
       </c>
       <c r="K13">
-        <v>12.7098644303794</v>
+        <v>11.57184166172404</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.48698519699689</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.995602987571656</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1016,48 +1088,54 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>10.51601128397585</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.02523002039525</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.59332460574153</v>
+        <v>26.56920684021302</v>
       </c>
       <c r="C14">
-        <v>21.33323476430988</v>
+        <v>21.77867258595295</v>
       </c>
       <c r="D14">
-        <v>3.861985663050593</v>
+        <v>4.274379458359713</v>
       </c>
       <c r="E14">
-        <v>14.05261373100778</v>
+        <v>13.58978473299315</v>
       </c>
       <c r="F14">
-        <v>25.14791980317846</v>
+        <v>23.48453706025156</v>
       </c>
       <c r="G14">
-        <v>35.05832139570991</v>
+        <v>34.42447556300019</v>
       </c>
       <c r="H14">
-        <v>7.424912791689714</v>
+        <v>7.333708723568905</v>
       </c>
       <c r="J14">
-        <v>9.879735124603506</v>
+        <v>9.003874105907654</v>
       </c>
       <c r="K14">
-        <v>12.14342517060161</v>
+        <v>11.17072791674133</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.28155638415263</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.501152544174141</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1066,48 +1144,54 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>10.65595581779442</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.14400305308713</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.35999293870695</v>
+        <v>26.37194097226091</v>
       </c>
       <c r="C15">
-        <v>21.10049771239566</v>
+        <v>21.55704307471816</v>
       </c>
       <c r="D15">
-        <v>3.891577930130521</v>
+        <v>4.290083329771843</v>
       </c>
       <c r="E15">
-        <v>13.1301867405799</v>
+        <v>12.65829946974755</v>
       </c>
       <c r="F15">
-        <v>24.79291662860052</v>
+        <v>23.21414480171632</v>
       </c>
       <c r="G15">
-        <v>34.45728614661772</v>
+        <v>33.70336773114094</v>
       </c>
       <c r="H15">
-        <v>7.594600984174854</v>
+        <v>7.508535293361589</v>
       </c>
       <c r="J15">
-        <v>9.764350067629444</v>
+        <v>9.035643816205125</v>
       </c>
       <c r="K15">
-        <v>11.99686339937251</v>
+        <v>11.08660589398767</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.25246571369861</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.344139918976916</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1116,48 +1200,54 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>10.69831711788468</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.17264719683284</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49724785364696</v>
+        <v>25.64114529674587</v>
       </c>
       <c r="C16">
-        <v>20.44822233160612</v>
+        <v>21.00329580825202</v>
       </c>
       <c r="D16">
-        <v>3.831233677527988</v>
+        <v>4.167002902129211</v>
       </c>
       <c r="E16">
-        <v>12.92582493021501</v>
+        <v>12.50191267334871</v>
       </c>
       <c r="F16">
-        <v>24.14654685281124</v>
+        <v>22.88859414492605</v>
       </c>
       <c r="G16">
-        <v>33.46053837302614</v>
+        <v>31.9882235237857</v>
       </c>
       <c r="H16">
-        <v>7.300310454835324</v>
+        <v>7.223191006228936</v>
       </c>
       <c r="J16">
-        <v>9.641821716751524</v>
+        <v>9.531991781136878</v>
       </c>
       <c r="K16">
-        <v>11.94410924620023</v>
+        <v>11.21904657978469</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.45313790234712</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.110726484495651</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1166,48 +1256,54 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>10.76753217415954</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.17057837931167</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.14629257478875</v>
+        <v>25.33451805234603</v>
       </c>
       <c r="C17">
-        <v>20.3095665952653</v>
+        <v>20.92525126068472</v>
       </c>
       <c r="D17">
-        <v>3.708287750233837</v>
+        <v>4.016968478977695</v>
       </c>
       <c r="E17">
-        <v>14.84660725125472</v>
+        <v>14.481600102766</v>
       </c>
       <c r="F17">
-        <v>24.28897153013333</v>
+        <v>23.14046123252325</v>
       </c>
       <c r="G17">
-        <v>33.80424596426435</v>
+        <v>31.96203418442477</v>
       </c>
       <c r="H17">
-        <v>6.62787754699245</v>
+        <v>6.548435291399919</v>
       </c>
       <c r="J17">
-        <v>9.772820905479506</v>
+        <v>9.906323521542824</v>
       </c>
       <c r="K17">
-        <v>12.21117364838813</v>
+        <v>11.52348580366889</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.71699193771231</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.222183030377656</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1216,48 +1312,54 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>10.74971223125769</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.11642695813824</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.21240651705388</v>
+        <v>25.3878653686528</v>
       </c>
       <c r="C18">
-        <v>20.6129386535807</v>
+        <v>21.28997082051873</v>
       </c>
       <c r="D18">
-        <v>3.525865267528522</v>
+        <v>3.825493803877694</v>
       </c>
       <c r="E18">
-        <v>19.20927487017306</v>
+        <v>18.89920716715284</v>
       </c>
       <c r="F18">
-        <v>25.12533901168583</v>
+        <v>23.96034672880304</v>
       </c>
       <c r="G18">
-        <v>35.34494317264404</v>
+        <v>33.24141773698145</v>
       </c>
       <c r="H18">
-        <v>5.653732301263858</v>
+        <v>5.55959576125048</v>
       </c>
       <c r="J18">
-        <v>10.13215354191719</v>
+        <v>10.32808232995886</v>
       </c>
       <c r="K18">
-        <v>12.77593554594695</v>
+        <v>12.03031449587497</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.08504166130012</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.586977639069096</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1266,48 +1368,54 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>10.66239833992579</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.00983567288078</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.61402902589461</v>
+        <v>25.73730884766706</v>
       </c>
       <c r="C19">
-        <v>21.25343532009359</v>
+        <v>21.99823120912649</v>
       </c>
       <c r="D19">
-        <v>3.322574442832734</v>
+        <v>3.621183499241325</v>
       </c>
       <c r="E19">
-        <v>25.36994724294284</v>
+        <v>25.08977680976277</v>
       </c>
       <c r="F19">
-        <v>26.44039080495977</v>
+        <v>25.17872971468391</v>
       </c>
       <c r="G19">
-        <v>37.70509790043952</v>
+        <v>35.38271321164891</v>
       </c>
       <c r="H19">
-        <v>4.782943840303902</v>
+        <v>4.66158495876902</v>
       </c>
       <c r="J19">
-        <v>10.64294229630422</v>
+        <v>10.80088557392116</v>
       </c>
       <c r="K19">
-        <v>13.53485148225877</v>
+        <v>12.67088551347631</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.51899576318764</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.129166320751795</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1316,48 +1424,54 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>10.53451577282835</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>10.87193555572894</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.91759700049044</v>
+        <v>26.8861245357452</v>
       </c>
       <c r="C20">
-        <v>22.77763899311915</v>
+        <v>23.60660179176815</v>
       </c>
       <c r="D20">
-        <v>3.069200529246165</v>
+        <v>3.382931522668911</v>
       </c>
       <c r="E20">
-        <v>35.51032887701932</v>
+        <v>35.22081440092069</v>
       </c>
       <c r="F20">
-        <v>28.98913906208719</v>
+        <v>27.425319843678</v>
       </c>
       <c r="G20">
-        <v>42.15099156732421</v>
+        <v>39.70298899171866</v>
       </c>
       <c r="H20">
-        <v>4.633493981210878</v>
+        <v>4.46989976855711</v>
       </c>
       <c r="J20">
-        <v>11.55015946353289</v>
+        <v>11.40202320235367</v>
       </c>
       <c r="K20">
-        <v>14.80421874585333</v>
+        <v>13.65969351363098</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.09593743822385</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.149068927635673</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1366,48 +1480,54 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>10.2839615012026</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>10.63350815289471</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.70775744274107</v>
+        <v>28.38850364048735</v>
       </c>
       <c r="C21">
-        <v>24.2736653563486</v>
+        <v>24.91328534050186</v>
       </c>
       <c r="D21">
-        <v>3.058489941105022</v>
+        <v>3.473248540508356</v>
       </c>
       <c r="E21">
-        <v>38.43848839808193</v>
+        <v>38.08401944672013</v>
       </c>
       <c r="F21">
-        <v>30.77606410839927</v>
+        <v>28.52437320126143</v>
       </c>
       <c r="G21">
-        <v>45.00528505578487</v>
+        <v>43.93872316560719</v>
       </c>
       <c r="H21">
-        <v>5.049266672035887</v>
+        <v>4.848248652534305</v>
       </c>
       <c r="J21">
-        <v>12.04568879003933</v>
+        <v>10.50083200825281</v>
       </c>
       <c r="K21">
-        <v>15.33132709091041</v>
+        <v>13.73220772971399</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.86898464454069</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.911478748258046</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1416,48 +1536,54 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>10.03876132813012</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>10.50063512182846</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.79581866569169</v>
+        <v>29.29042260757229</v>
       </c>
       <c r="C22">
-        <v>25.16357590819625</v>
+        <v>25.66468268500268</v>
       </c>
       <c r="D22">
-        <v>3.061587709957523</v>
+        <v>3.548456986101164</v>
       </c>
       <c r="E22">
-        <v>39.84485425824381</v>
+        <v>39.44751070867765</v>
       </c>
       <c r="F22">
-        <v>31.82911911967934</v>
+        <v>29.12272027584476</v>
       </c>
       <c r="G22">
-        <v>46.66359166615142</v>
+        <v>46.59298163295708</v>
       </c>
       <c r="H22">
-        <v>5.295818374950511</v>
+        <v>5.070929618585077</v>
       </c>
       <c r="J22">
-        <v>12.33455849233258</v>
+        <v>9.829350473591743</v>
       </c>
       <c r="K22">
-        <v>15.63336096342217</v>
+        <v>13.72979058566856</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.68529836726721</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.39458016010255</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1466,48 +1592,54 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>9.888022195298547</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>10.43219807892123</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.21914450647685</v>
+        <v>28.83030521015282</v>
       </c>
       <c r="C23">
-        <v>24.6918040483575</v>
+        <v>25.29774174056308</v>
       </c>
       <c r="D23">
-        <v>3.060039892927882</v>
+        <v>3.501788169594163</v>
       </c>
       <c r="E23">
-        <v>39.0989460312165</v>
+        <v>38.72635416222032</v>
       </c>
       <c r="F23">
-        <v>31.26861339722805</v>
+        <v>28.8568939075924</v>
       </c>
       <c r="G23">
-        <v>45.78145957279914</v>
+        <v>44.99944484572973</v>
       </c>
       <c r="H23">
-        <v>5.164497923279623</v>
+        <v>4.953396421231009</v>
       </c>
       <c r="J23">
-        <v>12.18016482689029</v>
+        <v>10.32679114105187</v>
       </c>
       <c r="K23">
-        <v>15.47095750286694</v>
+        <v>13.75972900565364</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.80183248424447</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.16177686051283</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1516,48 +1648,54 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>9.968361626244745</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>10.46298407076254</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.94549765088646</v>
+        <v>26.91020018731725</v>
       </c>
       <c r="C24">
-        <v>22.83432460567393</v>
+        <v>23.67120365837627</v>
       </c>
       <c r="D24">
-        <v>3.051913606729116</v>
+        <v>3.363247358239231</v>
       </c>
       <c r="E24">
-        <v>36.16975688221975</v>
+        <v>35.88059789591938</v>
       </c>
       <c r="F24">
-        <v>29.1121786876036</v>
+        <v>27.54270564845626</v>
       </c>
       <c r="G24">
-        <v>42.37543901497568</v>
+        <v>39.89620371299301</v>
       </c>
       <c r="H24">
-        <v>4.660854285328946</v>
+        <v>4.496634519871741</v>
       </c>
       <c r="J24">
-        <v>11.60024241990554</v>
+        <v>11.457184317019</v>
       </c>
       <c r="K24">
-        <v>14.88189766696764</v>
+        <v>13.72819232822024</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.14599672193241</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.201332003802051</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1566,48 +1704,54 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>10.27521036412123</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>10.62183461653464</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.29720802690661</v>
+        <v>24.45460513151617</v>
       </c>
       <c r="C25">
-        <v>20.67587915088652</v>
+        <v>21.40211157037722</v>
       </c>
       <c r="D25">
-        <v>3.038638226675774</v>
+        <v>3.277788695574937</v>
       </c>
       <c r="E25">
-        <v>32.78157368790649</v>
+        <v>32.55779514270898</v>
       </c>
       <c r="F25">
-        <v>26.7157641090849</v>
+        <v>25.47861393064722</v>
       </c>
       <c r="G25">
-        <v>38.5610439249505</v>
+        <v>36.27278835833987</v>
       </c>
       <c r="H25">
-        <v>4.101876272447964</v>
+        <v>3.974943573951524</v>
       </c>
       <c r="J25">
-        <v>10.98541314587466</v>
+        <v>11.09336418676099</v>
       </c>
       <c r="K25">
-        <v>14.29959556237547</v>
+        <v>13.41312696596187</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.31538130157347</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.239864709173677</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1616,9 +1760,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>10.61231898687816</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>10.85977156532726</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
